--- a/turnos.xlsx
+++ b/turnos.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29803"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A2416A0-FB10-4A04-8625-487CAF2C1EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D31901A-21E8-4D71-9480-CF71661E84D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="84">
   <si>
     <t>Domingo</t>
   </si>
@@ -126,6 +126,9 @@
     <t>22:00 - 6:00</t>
   </si>
   <si>
+    <t>6:00 - 12:00</t>
+  </si>
+  <si>
     <t>14:00 - 21:00</t>
   </si>
   <si>
@@ -138,9 +141,6 @@
     <t>Salario Emocional</t>
   </si>
   <si>
-    <t>6:00 - 12:00</t>
-  </si>
-  <si>
     <t>JURANI ROSAS</t>
   </si>
   <si>
@@ -165,6 +165,9 @@
     <t>Incapacidad</t>
   </si>
   <si>
+    <t>13:00 - 19:00</t>
+  </si>
+  <si>
     <t>FREDY ALEXANDER CALCETERO PARDO</t>
   </si>
   <si>
@@ -207,6 +210,9 @@
     <t>16:00 - 21:00</t>
   </si>
   <si>
+    <t>13:00 - 20:00</t>
+  </si>
+  <si>
     <t>SARA SOFIA CASAS CHARCAS</t>
   </si>
   <si>
@@ -225,6 +231,9 @@
     <t>14:00 - 20:00</t>
   </si>
   <si>
+    <t>12:00 - 19:00</t>
+  </si>
+  <si>
     <t>PAOLA ANDREA BARRETO PATARROYO</t>
   </si>
   <si>
@@ -255,9 +264,6 @@
     <t>14:00 - 19:00</t>
   </si>
   <si>
-    <t>13:00 - 20:00</t>
-  </si>
-  <si>
     <t>9:00 - 14:00</t>
   </si>
   <si>
@@ -265,9 +271,6 @@
   </si>
   <si>
     <t>HEIDY ZULIEN ULLOA GARCES</t>
-  </si>
-  <si>
-    <t>12:00 - 19:00</t>
   </si>
   <si>
     <t>ANA MILENA SOLANO BRAVO</t>
@@ -515,7 +518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -582,6 +585,12 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -784,8 +793,8 @@
   <dimension ref="A1:AC36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U18" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B37" sqref="B37:AC38"/>
+      <pane xSplit="1" topLeftCell="B2" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1000,7 +1009,7 @@
       <c r="J3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="11" t="s">
         <v>17</v>
       </c>
       <c r="L3" s="18" t="s">
@@ -1089,7 +1098,7 @@
       <c r="J4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L4" s="3" t="s">
@@ -1178,7 +1187,7 @@
       <c r="J5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="3" t="s">
@@ -1267,7 +1276,7 @@
       <c r="J6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="6" t="s">
@@ -1356,14 +1365,14 @@
       <c r="J7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>19</v>
+      <c r="K7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>9</v>
@@ -1393,7 +1402,7 @@
         <v>9</v>
       </c>
       <c r="W7" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X7" s="8" t="s">
         <v>20</v>
@@ -1416,64 +1425,64 @@
     </row>
     <row r="8" spans="1:29" ht="12.75">
       <c r="A8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="T8" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="U8" s="8" t="s">
         <v>19</v>
@@ -1534,7 +1543,7 @@
       <c r="J9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L9" s="8" t="s">
@@ -1623,7 +1632,7 @@
       <c r="J10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L10" s="8" t="s">
@@ -1712,7 +1721,7 @@
       <c r="J11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="L11" s="3" t="s">
@@ -1767,7 +1776,7 @@
         <v>28</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="12.75">
@@ -1801,7 +1810,7 @@
       <c r="J12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="L12" s="3" t="s">
@@ -1856,21 +1865,21 @@
         <v>41</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="12.75">
       <c r="A13" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>17</v>
@@ -1879,7 +1888,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>20</v>
@@ -1890,26 +1899,26 @@
       <c r="J13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P13" s="23" t="s">
         <v>9</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>14</v>
@@ -1950,7 +1959,7 @@
     </row>
     <row r="14" spans="1:29" ht="12.75">
       <c r="A14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
@@ -1959,7 +1968,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>12</v>
@@ -1974,19 +1983,19 @@
         <v>20</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="K14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>12</v>
@@ -1998,10 +2007,10 @@
         <v>19</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S14" s="23" t="s">
         <v>9</v>
@@ -2028,7 +2037,7 @@
         <v>19</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>19</v>
@@ -2039,7 +2048,7 @@
     </row>
     <row r="15" spans="1:29" ht="12.75">
       <c r="A15" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>9</v>
@@ -2051,7 +2060,7 @@
         <v>18</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
@@ -2066,9 +2075,9 @@
         <v>9</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="9" t="s">
         <v>9</v>
       </c>
       <c r="L15" s="3" t="s">
@@ -2078,10 +2087,10 @@
         <v>12</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>19</v>
@@ -2111,7 +2120,7 @@
         <v>20</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z15" s="3" t="s">
         <v>20</v>
@@ -2128,25 +2137,25 @@
     </row>
     <row r="16" spans="1:29" ht="12.75">
       <c r="A16" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>20</v>
@@ -2155,22 +2164,22 @@
         <v>9</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="M16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="P16" s="23" t="s">
         <v>9</v>
@@ -2179,10 +2188,10 @@
         <v>17</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>13</v>
@@ -2197,7 +2206,7 @@
         <v>9</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y16" s="3" t="s">
         <v>19</v>
@@ -2217,7 +2226,7 @@
     </row>
     <row r="17" spans="1:29" ht="12.75">
       <c r="A17" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>9</v>
@@ -2246,7 +2255,7 @@
       <c r="J17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="19" t="s">
         <v>23</v>
       </c>
       <c r="L17" s="4" t="s">
@@ -2283,7 +2292,7 @@
         <v>19</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X17" s="3" t="s">
         <v>13</v>
@@ -2301,21 +2310,21 @@
         <v>10</v>
       </c>
       <c r="AC17" s="3" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="12.75">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>13</v>
@@ -2330,58 +2339,58 @@
         <v>9</v>
       </c>
       <c r="I18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T18" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z18" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T18" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>20</v>
@@ -2395,7 +2404,7 @@
     </row>
     <row r="19" spans="1:29" ht="12.75">
       <c r="A19" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>23</v>
@@ -2424,7 +2433,7 @@
       <c r="J19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="19" t="s">
         <v>23</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -2440,7 +2449,7 @@
         <v>20</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="3" t="s">
         <v>20</v>
@@ -2452,7 +2461,7 @@
         <v>13</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U19" s="23" t="s">
         <v>9</v>
@@ -2484,10 +2493,10 @@
     </row>
     <row r="20" spans="1:29" ht="12.75">
       <c r="A20" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>20</v>
@@ -2511,16 +2520,16 @@
         <v>19</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>20</v>
+        <v>46</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>20</v>
@@ -2532,7 +2541,7 @@
         <v>9</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>19</v>
@@ -2544,10 +2553,10 @@
         <v>19</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W20" s="23" t="s">
         <v>9</v>
@@ -2573,7 +2582,7 @@
     </row>
     <row r="21" spans="1:29" ht="12.75">
       <c r="A21" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>9</v>
@@ -2585,7 +2594,7 @@
         <v>19</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>19</v>
@@ -2602,14 +2611,14 @@
       <c r="J21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>20</v>
+      <c r="K21" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>17</v>
@@ -2617,23 +2626,23 @@
       <c r="O21" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="P21" s="6" t="s">
         <v>13</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>15</v>
@@ -2648,13 +2657,13 @@
         <v>20</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="AB21" s="3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="AC21" s="3" t="s">
         <v>14</v>
@@ -2662,7 +2671,7 @@
     </row>
     <row r="22" spans="1:29" ht="12.75">
       <c r="A22" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>9</v>
@@ -2691,7 +2700,7 @@
       <c r="J22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="L22" s="6" t="s">
@@ -2722,7 +2731,7 @@
         <v>9</v>
       </c>
       <c r="U22" s="23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V22" s="6" t="s">
         <v>28</v>
@@ -2751,10 +2760,10 @@
     </row>
     <row r="23" spans="1:29" ht="12.75">
       <c r="A23" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>12</v>
@@ -2766,7 +2775,7 @@
         <v>9</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>20</v>
@@ -2780,14 +2789,14 @@
       <c r="J23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>45</v>
+      <c r="K23" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="L23" s="23" t="s">
         <v>9</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>13</v>
@@ -2820,7 +2829,7 @@
         <v>13</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y23" s="3" t="s">
         <v>12</v>
@@ -2829,18 +2838,18 @@
         <v>13</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="AC23" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="12.75">
       <c r="A24" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>18</v>
@@ -2849,10 +2858,10 @@
         <v>20</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" s="23" t="s">
         <v>9</v>
@@ -2869,56 +2878,56 @@
       <c r="J24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P24" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P24" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="S24" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="U24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W24" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA24" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="W24" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA24" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="AB24" s="3" t="s">
         <v>20</v>
@@ -2929,16 +2938,16 @@
     </row>
     <row r="25" spans="1:29" ht="12.75">
       <c r="A25" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>12</v>
@@ -2950,15 +2959,15 @@
         <v>13</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I25" s="23" t="s">
         <v>9</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L25" s="3" t="s">
@@ -2968,7 +2977,7 @@
         <v>14</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="O25" s="3" t="s">
         <v>20</v>
@@ -3013,21 +3022,21 @@
         <v>15</v>
       </c>
       <c r="AC25" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="12.75">
       <c r="A26" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>9</v>
@@ -3039,15 +3048,15 @@
         <v>14</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="L26" s="23" t="s">
@@ -3057,7 +3066,7 @@
         <v>19</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>19</v>
@@ -3069,7 +3078,7 @@
         <v>20</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>14</v>
@@ -3087,16 +3096,16 @@
         <v>9</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA26" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB26" s="3" t="s">
         <v>19</v>
@@ -3107,13 +3116,13 @@
     </row>
     <row r="27" spans="1:29" ht="12.75">
       <c r="A27" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>14</v>
@@ -3128,7 +3137,7 @@
         <v>20</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I27" s="23" t="s">
         <v>9</v>
@@ -3136,20 +3145,20 @@
       <c r="J27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>15</v>
+      <c r="K27" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P27" s="23" t="s">
         <v>9</v>
@@ -3158,10 +3167,10 @@
         <v>15</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T27" s="23" t="s">
         <v>9</v>
@@ -3170,7 +3179,7 @@
         <v>14</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>18</v>
@@ -3182,7 +3191,7 @@
         <v>20</v>
       </c>
       <c r="Z27" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AA27" s="3" t="s">
         <v>14</v>
@@ -3196,22 +3205,22 @@
     </row>
     <row r="28" spans="1:29" ht="12.75">
       <c r="A28" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>13</v>
@@ -3225,41 +3234,41 @@
       <c r="J28" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="2" t="s">
         <v>19</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O28" s="4" t="s">
         <v>9</v>
       </c>
       <c r="P28" s="23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T28" s="3" t="s">
         <v>19</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W28" s="23" t="s">
         <v>9</v>
@@ -3271,39 +3280,39 @@
         <v>19</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="AC28" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="12.75">
       <c r="A29" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>20</v>
@@ -3314,11 +3323,11 @@
       <c r="J29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>13</v>
@@ -3339,10 +3348,10 @@
         <v>20</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U29" s="23" t="s">
         <v>9</v>
@@ -3351,13 +3360,13 @@
         <v>12</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>12</v>
@@ -3374,7 +3383,7 @@
     </row>
     <row r="30" spans="1:29" ht="12.75">
       <c r="A30" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>9</v>
@@ -3389,7 +3398,7 @@
         <v>35</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>10</v>
@@ -3401,10 +3410,10 @@
         <v>9</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>20</v>
@@ -3413,16 +3422,16 @@
         <v>14</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P30" s="23" t="s">
         <v>9</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R30" s="3" t="s">
         <v>20</v>
@@ -3431,13 +3440,13 @@
         <v>14</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W30" s="23" t="s">
         <v>9</v>
@@ -3458,12 +3467,12 @@
         <v>20</v>
       </c>
       <c r="AC30" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="12.75">
       <c r="A31" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>19</v>
@@ -3472,7 +3481,7 @@
         <v>15</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>13</v>
@@ -3487,13 +3496,13 @@
         <v>9</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K31" s="3" t="s">
-        <v>45</v>
+      <c r="K31" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>20</v>
@@ -3505,13 +3514,13 @@
         <v>20</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P31" s="23" t="s">
         <v>9</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R31" s="6" t="s">
         <v>17</v>
@@ -3520,10 +3529,10 @@
         <v>20</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V31" s="3" t="s">
         <v>14</v>
@@ -3535,16 +3544,16 @@
         <v>13</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z31" s="3" t="s">
         <v>13</v>
       </c>
       <c r="AA31" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB31" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AC31" s="3" t="s">
         <v>12</v>
@@ -3552,16 +3561,16 @@
     </row>
     <row r="32" spans="1:29" ht="12.75">
       <c r="A32" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>14</v>
@@ -3576,12 +3585,12 @@
         <v>9</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L32" s="3" t="s">
@@ -3618,22 +3627,22 @@
         <v>9</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA32" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB32" s="3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="AC32" s="3" t="s">
         <v>15</v>
@@ -3641,7 +3650,7 @@
     </row>
     <row r="33" spans="1:29" ht="12.75">
       <c r="A33" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>13</v>
@@ -3650,7 +3659,7 @@
         <v>12</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>19</v>
@@ -3659,7 +3668,7 @@
         <v>9</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>19</v>
@@ -3670,14 +3679,14 @@
       <c r="J33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>46</v>
+      <c r="K33" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>19</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N33" s="23" t="s">
         <v>9</v>
@@ -3686,19 +3695,19 @@
         <v>15</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>20</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>20</v>
@@ -3713,7 +3722,7 @@
         <v>17</v>
       </c>
       <c r="Y33" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z33" s="3" t="s">
         <v>11</v>
@@ -3730,7 +3739,7 @@
     </row>
     <row r="34" spans="1:29" ht="12.75">
       <c r="A34" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>36</v>
@@ -3759,20 +3768,20 @@
       <c r="J34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M34" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P34" s="23" t="s">
         <v>9</v>
@@ -3787,7 +3796,7 @@
         <v>17</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U34" s="3" t="s">
         <v>19</v>
@@ -3796,7 +3805,7 @@
         <v>9</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X34" s="3" t="s">
         <v>20</v>
@@ -3819,19 +3828,19 @@
     </row>
     <row r="35" spans="1:29" ht="12.75">
       <c r="A35" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>14</v>
@@ -3848,20 +3857,20 @@
       <c r="J35" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="6" t="s">
+      <c r="K35" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N35" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O35" s="6" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="P35" s="23" t="s">
         <v>9</v>
@@ -3873,10 +3882,10 @@
         <v>19</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>13</v>
@@ -3885,7 +3894,7 @@
         <v>9</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X35" s="3" t="s">
         <v>20</v>
@@ -3908,7 +3917,7 @@
     </row>
     <row r="36" spans="1:29" ht="15.75" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>9</v>
@@ -3917,10 +3926,10 @@
         <v>19</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>20</v>
@@ -3929,7 +3938,7 @@
         <v>20</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I36" s="23" t="s">
         <v>9</v>
@@ -3937,7 +3946,7 @@
       <c r="J36" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36" s="2" t="s">
         <v>19</v>
       </c>
       <c r="L36" s="3" t="s">
@@ -3983,7 +3992,7 @@
         <v>13</v>
       </c>
       <c r="Z36" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA36" s="3" t="s">
         <v>13</v>

--- a/turnos.xlsx
+++ b/turnos.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D31901A-21E8-4D71-9480-CF71661E84D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A1A4846-B313-468D-A83C-CAD8BB96915D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="86">
   <si>
     <t>Domingo</t>
   </si>
@@ -96,36 +96,39 @@
     <t>15:00 - 21:00</t>
   </si>
   <si>
+    <t>11:00 - 16:00</t>
+  </si>
+  <si>
+    <t>BRAYAN CAMILO ORTEGA NARVAEZ</t>
+  </si>
+  <si>
+    <t>7:00 - 17:00</t>
+  </si>
+  <si>
+    <t>vacaciones</t>
+  </si>
+  <si>
+    <t>PAULA ANDREA GARCES OSPINA</t>
+  </si>
+  <si>
+    <t>DIEGO ANDRES REYES RAMIREZ</t>
+  </si>
+  <si>
+    <t>08:01 - 17:00</t>
+  </si>
+  <si>
+    <t>ANDREA CAROLINA TORRES NUÑEZ</t>
+  </si>
+  <si>
+    <t>22:00 - 6:00</t>
+  </si>
+  <si>
     <t>6:00 - 14:00</t>
   </si>
   <si>
     <t>14:00 - 22:00</t>
   </si>
   <si>
-    <t>BRAYAN CAMILO ORTEGA NARVAEZ</t>
-  </si>
-  <si>
-    <t>7:00 - 17:00</t>
-  </si>
-  <si>
-    <t>vacaciones</t>
-  </si>
-  <si>
-    <t>PAULA ANDREA GARCES OSPINA</t>
-  </si>
-  <si>
-    <t>DIEGO ANDRES REYES RAMIREZ</t>
-  </si>
-  <si>
-    <t>08:01 - 17:00</t>
-  </si>
-  <si>
-    <t>ANDREA CAROLINA TORRES NUÑEZ</t>
-  </si>
-  <si>
-    <t>22:00 - 6:00</t>
-  </si>
-  <si>
     <t>6:00 - 12:00</t>
   </si>
   <si>
@@ -192,79 +195,82 @@
     <t>13:00 - 21:00</t>
   </si>
   <si>
+    <t>LOREN YIRETH INDABURO VARGAS</t>
+  </si>
+  <si>
+    <t>JUAN DAVID ORJUELA MORALES</t>
+  </si>
+  <si>
+    <t>12:00 - 21:00</t>
+  </si>
+  <si>
+    <t>DAYANA ANDREA RAMIREZ BERNAL</t>
+  </si>
+  <si>
+    <t>SARA SOFIA CASAS CHARCAS</t>
+  </si>
+  <si>
+    <t>11:00 - 20:00</t>
+  </si>
+  <si>
+    <t>KELLY KATHERINE LOPEZ CHINGUAL</t>
+  </si>
+  <si>
+    <t>DANIEL LOAIZA JIMENEZ</t>
+  </si>
+  <si>
+    <t>CARLOS DANIEL PATIÑO ALVAREZ</t>
+  </si>
+  <si>
+    <t>14:00 - 20:00</t>
+  </si>
+  <si>
+    <t>12:00 - 19:00</t>
+  </si>
+  <si>
+    <t>PAOLA ANDREA BARRETO PATARROYO</t>
+  </si>
+  <si>
+    <t>JENNY ALEXANDRA ANTONIO ANTONIO</t>
+  </si>
+  <si>
+    <t>KEILA DEL CARMEN BENAVIDEZ OLIVERA</t>
+  </si>
+  <si>
+    <t>NICOLAS JOSE CABANZO SANTOS</t>
+  </si>
+  <si>
+    <t>BRIAM ERNESTO NIETO HERNANDEZ</t>
+  </si>
+  <si>
+    <t>16:00 - 21:00</t>
+  </si>
+  <si>
+    <t>9:00 - 14:00</t>
+  </si>
+  <si>
+    <t>JHOSNMAN ARLEY RODRIGUEZ ARIAS</t>
+  </si>
+  <si>
+    <t>17:00 - 22:00</t>
+  </si>
+  <si>
+    <t>Retiro</t>
+  </si>
+  <si>
+    <t>PAOLA STEFANIA ARIAS PEÑA</t>
+  </si>
+  <si>
     <t>6:00 - 13:00</t>
   </si>
   <si>
-    <t>LOREN YIRETH INDABURO VARGAS</t>
-  </si>
-  <si>
-    <t>JUAN DAVID ORJUELA MORALES</t>
-  </si>
-  <si>
-    <t>12:00 - 21:00</t>
-  </si>
-  <si>
-    <t>DAYANA ANDREA RAMIREZ BERNAL</t>
-  </si>
-  <si>
-    <t>16:00 - 21:00</t>
+    <t>XIOMARA CATHERIN SALGADO CUERVO</t>
+  </si>
+  <si>
+    <t>14:00 - 19:00</t>
   </si>
   <si>
     <t>13:00 - 20:00</t>
-  </si>
-  <si>
-    <t>SARA SOFIA CASAS CHARCAS</t>
-  </si>
-  <si>
-    <t>11:00 - 20:00</t>
-  </si>
-  <si>
-    <t>KELLY KATHERINE LOPEZ CHINGUAL</t>
-  </si>
-  <si>
-    <t>DANIEL LOAIZA JIMENEZ</t>
-  </si>
-  <si>
-    <t>CARLOS DANIEL PATIÑO ALVAREZ</t>
-  </si>
-  <si>
-    <t>14:00 - 20:00</t>
-  </si>
-  <si>
-    <t>12:00 - 19:00</t>
-  </si>
-  <si>
-    <t>PAOLA ANDREA BARRETO PATARROYO</t>
-  </si>
-  <si>
-    <t>JENNY ALEXANDRA ANTONIO ANTONIO</t>
-  </si>
-  <si>
-    <t>KEILA DEL CARMEN BENAVIDEZ OLIVERA</t>
-  </si>
-  <si>
-    <t>NICOLAS JOSE CABANZO SANTOS</t>
-  </si>
-  <si>
-    <t>BRIAM ERNESTO NIETO HERNANDEZ</t>
-  </si>
-  <si>
-    <t>JHOSNMAN ARLEY RODRIGUEZ ARIAS</t>
-  </si>
-  <si>
-    <t>17:00 - 22:00</t>
-  </si>
-  <si>
-    <t>PAOLA STEFANIA ARIAS PEÑA</t>
-  </si>
-  <si>
-    <t>XIOMARA CATHERIN SALGADO CUERVO</t>
-  </si>
-  <si>
-    <t>14:00 - 19:00</t>
-  </si>
-  <si>
-    <t>9:00 - 14:00</t>
   </si>
   <si>
     <t>EDGAR ALEJANDRO HERRERA SARMIENTO</t>
@@ -581,9 +587,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
@@ -591,6 +594,9 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1033,7 +1039,7 @@
       <c r="R3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="S3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="T3" s="18" t="s">
@@ -1042,7 +1048,7 @@
       <c r="U3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="22" t="s">
+      <c r="V3" s="25" t="s">
         <v>19</v>
       </c>
       <c r="W3" s="21" t="s">
@@ -1064,93 +1070,93 @@
         <v>10</v>
       </c>
       <c r="AC3" s="20" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="12.75">
       <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="U4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="V4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="W4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="X4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="Y4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="Z4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="AA4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="AB4" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="AC4" s="4" t="s">
         <v>9</v>
@@ -1158,25 +1164,25 @@
     </row>
     <row r="5" spans="1:29" ht="12.75">
       <c r="A5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>9</v>
@@ -1185,19 +1191,19 @@
         <v>9</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>9</v>
@@ -1206,19 +1212,19 @@
         <v>9</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>9</v>
@@ -1227,19 +1233,19 @@
         <v>9</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>9</v>
@@ -1247,25 +1253,25 @@
     </row>
     <row r="6" spans="1:29" ht="12.75">
       <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>9</v>
@@ -1274,19 +1280,19 @@
         <v>9</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>9</v>
@@ -1295,19 +1301,19 @@
         <v>9</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>9</v>
@@ -1316,19 +1322,19 @@
         <v>9</v>
       </c>
       <c r="X6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC6" s="3" t="s">
         <v>9</v>
@@ -1336,16 +1342,16 @@
     </row>
     <row r="7" spans="1:29" ht="12.75">
       <c r="A7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
@@ -1354,42 +1360,42 @@
         <v>9</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="S7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="T7" s="8" t="s">
@@ -1402,208 +1408,208 @@
         <v>9</v>
       </c>
       <c r="W7" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X7" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Z7" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AA7" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AB7" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="12.75">
       <c r="A8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="C8" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="P8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="T8" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U8" s="8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="W8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="X8" s="8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Y8" s="8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Z8" s="8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AA8" s="8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AB8" s="8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AC8" s="8" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="12.75">
       <c r="A9" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="S9" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="W9" s="8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="X9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="12.75">
       <c r="A10" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>9</v>
@@ -1615,7 +1621,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>10</v>
@@ -1624,7 +1630,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>9</v>
@@ -1642,7 +1648,7 @@
         <v>10</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>9</v>
@@ -1656,17 +1662,17 @@
       <c r="R10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S10" s="8" t="s">
-        <v>16</v>
+      <c r="S10" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="U10" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="W10" s="4" t="s">
         <v>9</v>
@@ -1687,199 +1693,199 @@
         <v>15</v>
       </c>
       <c r="AC10" s="8" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="12.75">
       <c r="A11" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="22" t="s">
         <v>9</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O11" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="22" t="s">
         <v>9</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S11" s="23" t="s">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="U11" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X11" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="X11" s="22" t="s">
         <v>9</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC11" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="12.75">
       <c r="A12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="12.75">
       <c r="A13" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>17</v>
@@ -1888,12 +1894,12 @@
         <v>13</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="22" t="s">
         <v>9</v>
       </c>
       <c r="J13" s="3" t="s">
@@ -1903,55 +1909,55 @@
         <v>13</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P13" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" s="22" t="s">
         <v>9</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S13" s="3" t="s">
-        <v>14</v>
+      <c r="S13" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="U13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="W13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="W13" s="22" t="s">
         <v>9</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Y13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AC13" s="4" t="s">
         <v>9</v>
@@ -1959,7 +1965,7 @@
     </row>
     <row r="14" spans="1:29" ht="12.75">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
@@ -1968,55 +1974,55 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="S14" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="S14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>14</v>
@@ -2025,22 +2031,22 @@
         <v>14</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>13</v>
@@ -2060,7 +2066,7 @@
         <v>18</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
@@ -2071,11 +2077,11 @@
       <c r="H15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="22" t="s">
         <v>9</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>9</v>
@@ -2087,13 +2093,13 @@
         <v>12</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>12</v>
@@ -2101,7 +2107,7 @@
       <c r="R15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="S15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="T15" s="3" t="s">
@@ -2113,26 +2119,26 @@
       <c r="V15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W15" s="23" t="s">
+      <c r="W15" s="22" t="s">
         <v>9</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AB15" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AC15" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="12.75">
@@ -2143,10 +2149,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
@@ -2155,73 +2161,73 @@
         <v>54</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="22" t="s">
         <v>9</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="M16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P16" s="23" t="s">
+      <c r="P16" s="22" t="s">
         <v>9</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="V16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="W16" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="W16" s="22" t="s">
         <v>9</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AB16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AC16" s="3" t="s">
-        <v>10</v>
+      <c r="AC16" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="12.75">
@@ -2232,76 +2238,76 @@
         <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="S17" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="U17" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="U17" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Y17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AA17" s="3" t="s">
         <v>13</v>
@@ -2310,170 +2316,170 @@
         <v>10</v>
       </c>
       <c r="AC17" s="3" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="12.75">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="22" t="s">
         <v>9</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T18" s="23" t="s">
+      <c r="S18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T18" s="22" t="s">
         <v>9</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AB18" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AC18" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="12.75">
       <c r="A19" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="S19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U19" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W19" s="22" t="s">
+        <v>9</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Y19" s="3" t="s">
         <v>13</v>
@@ -2482,33 +2488,33 @@
         <v>17</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC19" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="AC19" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="12.75">
       <c r="A20" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>13</v>
@@ -2517,10 +2523,10 @@
         <v>11</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>15</v>
@@ -2528,76 +2534,76 @@
       <c r="L20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="23" t="s">
-        <v>33</v>
+      <c r="M20" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P20" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" s="22" t="s">
         <v>9</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W20" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="W20" s="22" t="s">
         <v>9</v>
       </c>
       <c r="X20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AB20" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AC20" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="12.75">
       <c r="A21" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>12</v>
@@ -2605,65 +2611,65 @@
       <c r="H21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="22" t="s">
         <v>9</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O21" s="23" t="s">
+      <c r="O21" s="22" t="s">
         <v>9</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>13</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="W21" s="23" t="s">
+      <c r="W21" s="22" t="s">
         <v>9</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>14</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB21" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AC21" s="3" t="s">
         <v>14</v>
@@ -2671,7 +2677,7 @@
     </row>
     <row r="22" spans="1:29" ht="12.75">
       <c r="A22" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>9</v>
@@ -2680,7 +2686,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>14</v>
@@ -2691,79 +2697,79 @@
       <c r="G22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="22" t="s">
         <v>9</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P22" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="P22" s="22" t="s">
         <v>9</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="S22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="T22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U22" s="23" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T22" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="V22" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W22" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X22" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y22" s="6" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="Z22" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA22" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC22" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="AC22" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="12.75">
       <c r="A23" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>12</v>
@@ -2771,14 +2777,14 @@
       <c r="D23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>14</v>
@@ -2787,16 +2793,16 @@
         <v>12</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L23" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" s="22" t="s">
         <v>9</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>13</v>
@@ -2808,19 +2814,19 @@
         <v>11</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="S23" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="S23" s="9" t="s">
         <v>9</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>14</v>
@@ -2829,7 +2835,7 @@
         <v>13</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y23" s="3" t="s">
         <v>12</v>
@@ -2838,36 +2844,36 @@
         <v>13</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="AC23" s="3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="12.75">
       <c r="A24" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>13</v>
@@ -2879,58 +2885,58 @@
         <v>12</v>
       </c>
       <c r="K24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P24" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P24" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>47</v>
+      <c r="S24" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="W24" s="23" t="s">
+      <c r="W24" s="22" t="s">
         <v>9</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y24" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="Z24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="AA24" s="3" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="AB24" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AC24" s="3" t="s">
         <v>14</v>
@@ -2938,16 +2944,16 @@
     </row>
     <row r="25" spans="1:29" ht="12.75">
       <c r="A25" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>12</v>
@@ -2959,30 +2965,30 @@
         <v>13</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I25" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="22" t="s">
         <v>9</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>14</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P25" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" s="22" t="s">
         <v>9</v>
       </c>
       <c r="Q25" s="3" t="s">
@@ -2991,124 +2997,124 @@
       <c r="R25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S25" s="3" t="s">
-        <v>20</v>
+      <c r="S25" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W25" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="W25" s="22" t="s">
         <v>9</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AA25" s="3" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AB25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="AC25" s="3" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="12.75">
       <c r="A26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P26" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U26" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W26" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L26" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P26" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W26" s="23" t="s">
-        <v>9</v>
-      </c>
       <c r="X26" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA26" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB26" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AC26" s="3" t="s">
         <v>12</v>
@@ -3128,39 +3134,39 @@
         <v>14</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="22" t="s">
         <v>9</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>14</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P27" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" s="22" t="s">
         <v>9</v>
       </c>
       <c r="Q27" s="3" t="s">
@@ -3169,58 +3175,58 @@
       <c r="R27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T27" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="V27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="W27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="X27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA27" s="3" t="s">
-        <v>14</v>
+      <c r="S27" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="W27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA27" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="AB27" s="4" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="AC27" s="4" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="12.75">
       <c r="A28" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>13</v>
@@ -3228,106 +3234,106 @@
       <c r="H28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="23" t="s">
+      <c r="I28" s="22" t="s">
         <v>9</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>17</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="O28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P28" s="23" t="s">
-        <v>33</v>
+      <c r="P28" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S28" s="3" t="s">
-        <v>45</v>
+      <c r="S28" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W28" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="W28" s="22" t="s">
         <v>9</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="AC28" s="3" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="12.75">
       <c r="A29" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="22" t="s">
         <v>9</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>13</v>
@@ -3336,37 +3342,37 @@
         <v>13</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P29" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" s="22" t="s">
         <v>9</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>14</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="U29" s="23" t="s">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>75</v>
+      <c r="W29" s="22" t="s">
+        <v>9</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>12</v>
@@ -3383,105 +3389,105 @@
     </row>
     <row r="30" spans="1:29" ht="12.75">
       <c r="A30" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="22" t="s">
         <v>9</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>14</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P30" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P30" s="22" t="s">
         <v>9</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="S30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="W30" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="W30" s="22" t="s">
         <v>9</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="Y30" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="Z30" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="AA30" s="3" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="AB30" s="3" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="AC30" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="12.75">
       <c r="A31" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>13</v>
@@ -3490,159 +3496,159 @@
         <v>14</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="22" t="s">
         <v>9</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P31" s="23" t="s">
+      <c r="P31" s="22" t="s">
         <v>9</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R31" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S31" s="3" t="s">
-        <v>20</v>
+      <c r="S31" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="T31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="W31" s="23" t="s">
+      <c r="W31" s="22" t="s">
         <v>9</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="Z31" s="3" t="s">
         <v>13</v>
       </c>
       <c r="AA31" s="3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="AB31" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC31" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="12.75">
       <c r="A32" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="22" t="s">
         <v>9</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P32" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P32" s="22" t="s">
         <v>9</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="V32" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="22" t="s">
         <v>9</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA32" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AB32" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="AC32" s="3" t="s">
         <v>15</v>
@@ -3650,7 +3656,7 @@
     </row>
     <row r="33" spans="1:29" ht="12.75">
       <c r="A33" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>13</v>
@@ -3659,73 +3665,73 @@
         <v>12</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N33" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N33" s="22" t="s">
         <v>9</v>
       </c>
       <c r="O33" s="6" t="s">
         <v>15</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>15</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>64</v>
+        <v>29</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W33" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="W33" s="22" t="s">
         <v>9</v>
       </c>
       <c r="X33" s="3" t="s">
         <v>17</v>
       </c>
       <c r="Y33" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z33" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA33" s="3" t="s">
         <v>11</v>
@@ -3734,35 +3740,35 @@
         <v>13</v>
       </c>
       <c r="AC33" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="12.75">
       <c r="A34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I34" s="23" t="s">
+      <c r="I34" s="22" t="s">
         <v>9</v>
       </c>
       <c r="J34" s="3" t="s">
@@ -3772,18 +3778,18 @@
         <v>12</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P34" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="P34" s="22" t="s">
         <v>9</v>
       </c>
       <c r="Q34" s="3" t="s">
@@ -3792,35 +3798,35 @@
       <c r="R34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S34" s="3" t="s">
+      <c r="S34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="V34" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="V34" s="22" t="s">
         <v>9</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Y34" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Z34" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AA34" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AB34" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AC34" s="4" t="s">
         <v>9</v>
@@ -3828,88 +3834,88 @@
     </row>
     <row r="35" spans="1:29" ht="12.75">
       <c r="A35" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="22" t="s">
         <v>9</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P35" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="P35" s="22" t="s">
         <v>9</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>47</v>
+        <v>28</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V35" s="23" t="s">
+      <c r="V35" s="22" t="s">
         <v>9</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Y35" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Z35" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AA35" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AB35" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AC35" s="4" t="s">
         <v>9</v>
@@ -3917,60 +3923,60 @@
     </row>
     <row r="36" spans="1:29" ht="15.75" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I36" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" s="22" t="s">
         <v>9</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="O36" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P36" s="23" t="s">
+      <c r="P36" s="22" t="s">
         <v>9</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="R36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S36" s="3" t="s">
+      <c r="S36" s="2" t="s">
         <v>14</v>
       </c>
       <c r="T36" s="3" t="s">
@@ -3982,7 +3988,7 @@
       <c r="V36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="W36" s="23" t="s">
+      <c r="W36" s="22" t="s">
         <v>9</v>
       </c>
       <c r="X36" s="3" t="s">
@@ -3992,7 +3998,7 @@
         <v>13</v>
       </c>
       <c r="Z36" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA36" s="3" t="s">
         <v>13</v>
@@ -4001,7 +4007,7 @@
         <v>13</v>
       </c>
       <c r="AC36" s="6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/turnos.xlsx
+++ b/turnos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A1A4846-B313-468D-A83C-CAD8BB96915D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F147BCCD-39A6-4B7F-8C7D-868E802CD20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,6 +153,9 @@
     <t>21:00 - 6:00</t>
   </si>
   <si>
+    <t>11:00 - 18:00</t>
+  </si>
+  <si>
     <t>DANIEL ALEJANDRO BAYONA BETACOURT</t>
   </si>
   <si>
@@ -292,16 +295,13 @@
   </si>
   <si>
     <t>Jeisson Alexander Bohorquez Benavides</t>
-  </si>
-  <si>
-    <t>11:00 - 18:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -352,8 +352,26 @@
       <name val="Aptos"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFC00000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,8 +408,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -519,12 +555,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -596,8 +682,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -799,14 +906,14 @@
   <dimension ref="A1:AC36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B2" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B3" sqref="B3"/>
+      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD1" sqref="AD1:AD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="34.42578125" customWidth="1"/>
-    <col min="16381" max="16384" width="11.5703125" customWidth="1"/>
+    <col min="16380" max="16384" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15">
@@ -1039,37 +1146,37 @@
       <c r="R3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="18" t="s">
+      <c r="U3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="25" t="s">
+      <c r="V3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="X3" s="18" t="s">
+      <c r="W3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="Y3" s="18" t="s">
+      <c r="Y3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="Z3" s="18" t="s">
+      <c r="Z3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="AA3" s="18" t="s">
+      <c r="AA3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="AB3" s="18" t="s">
+      <c r="AB3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="AC3" s="20" t="s">
+      <c r="AC3" s="27" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1128,37 +1235,37 @@
       <c r="R4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Y4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="Z4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AA4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AB4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AC4" s="28" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1217,37 +1324,37 @@
       <c r="R5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="U5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="X5" s="3" t="s">
+      <c r="V5" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="X5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Y5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="Z5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AA5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AB5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AC5" s="28" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1306,37 +1413,37 @@
       <c r="R6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="S6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="T6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="U6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="V6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="X6" s="6" t="s">
+      <c r="V6" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="Y6" s="6" t="s">
+      <c r="Y6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="Z6" s="6" t="s">
+      <c r="Z6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="AA6" s="6" t="s">
+      <c r="AA6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="AB6" s="6" t="s">
+      <c r="AB6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="AC6" s="3" t="s">
+      <c r="AC6" s="28" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1395,37 +1502,37 @@
       <c r="R7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="S7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W7" s="8" t="s">
+      <c r="S7" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="U7" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="V7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="X7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC7" s="4" t="s">
+      <c r="X7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC7" s="26" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1484,37 +1591,37 @@
       <c r="R8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="S8" s="7" t="s">
+      <c r="S8" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="T8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="V8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="X8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC8" s="8" t="s">
+      <c r="T8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="V8" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="W8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="X8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC8" s="27" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1573,43 +1680,43 @@
       <c r="R9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S9" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="U9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="X9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC9" s="8" t="s">
+      <c r="S9" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="U9" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="V9" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="W9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="X9" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y9" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z9" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA9" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB9" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC9" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="12.75">
       <c r="A10" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>9</v>
@@ -1621,7 +1728,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>10</v>
@@ -1662,43 +1769,43 @@
       <c r="R10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="S10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="T10" s="8" t="s">
+      <c r="T10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="U10" s="8" t="s">
+      <c r="U10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="V10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="X10" s="8" t="s">
+      <c r="V10" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="W10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="X10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="Y10" s="8" t="s">
+      <c r="Y10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="Z10" s="8" t="s">
+      <c r="Z10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="AA10" s="8" t="s">
+      <c r="AA10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="AB10" s="8" t="s">
+      <c r="AB10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="AC10" s="8" t="s">
+      <c r="AC10" s="26" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="12.75">
       <c r="A11" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>37</v>
@@ -1751,141 +1858,141 @@
       <c r="R11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U11" s="22" t="s">
+      <c r="S11" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W11" s="3" t="s">
+      <c r="T11" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="V11" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="W11" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="X11" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC11" s="3" t="s">
+      <c r="X11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y11" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z11" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA11" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB11" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC11" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="12.75">
       <c r="A12" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="T12" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="U12" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="V12" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="W12" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="X12" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y12" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="Z12" s="3" t="s">
+      <c r="Z12" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="AA12" s="3" t="s">
+      <c r="AA12" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="AB12" s="3" t="s">
+      <c r="AB12" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="AC12" s="3" t="s">
-        <v>43</v>
+      <c r="AC12" s="28" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="12.75">
       <c r="A13" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>17</v>
@@ -1894,7 +2001,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>29</v>
@@ -1909,7 +2016,7 @@
         <v>13</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>17</v>
@@ -1918,54 +2025,54 @@
         <v>33</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P13" s="22" t="s">
         <v>9</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U13" s="3" t="s">
+      <c r="S13" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="T13" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="U13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="V13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="W13" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y13" s="3" t="s">
+      <c r="V13" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="W13" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y13" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="Z13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC13" s="4" t="s">
+      <c r="Z13" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA13" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB13" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC13" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="12.75">
       <c r="A14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
@@ -1974,7 +2081,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>12</v>
@@ -1989,7 +2096,7 @@
         <v>29</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>29</v>
@@ -2001,7 +2108,7 @@
         <v>28</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>12</v>
@@ -2013,48 +2120,48 @@
         <v>28</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S14" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="V14" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="W14" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="X14" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y14" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z14" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA14" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB14" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC14" s="28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="12.75">
       <c r="A15" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>9</v>
@@ -2066,7 +2173,7 @@
         <v>18</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
@@ -2081,7 +2188,7 @@
         <v>9</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>9</v>
@@ -2093,10 +2200,10 @@
         <v>12</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>28</v>
@@ -2107,43 +2214,43 @@
       <c r="R15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="S15" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="T15" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="U15" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="V15" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="W15" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC15" s="3" t="s">
+      <c r="W15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="X15" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y15" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z15" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA15" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB15" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC15" s="28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="12.75">
       <c r="A16" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>9</v>
@@ -2152,13 +2259,13 @@
         <v>31</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>33</v>
@@ -2179,13 +2286,13 @@
         <v>14</v>
       </c>
       <c r="M16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="P16" s="22" t="s">
         <v>9</v>
@@ -2194,45 +2301,45 @@
         <v>17</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="S16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="T16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="U16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="V16" s="6" t="s">
+      <c r="T16" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="U16" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="V16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="W16" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC16" s="4" t="s">
-        <v>9</v>
+      <c r="W16" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="X16" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y16" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z16" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA16" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB16" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC16" s="30" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="12.75">
       <c r="A17" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>9</v>
@@ -2285,52 +2392,52 @@
       <c r="R17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S17" s="19" t="s">
+      <c r="S17" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="T17" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="U17" s="22" t="s">
+      <c r="U17" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y17" s="3" t="s">
+      <c r="V17" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="W17" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="X17" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y17" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB17" s="3" t="s">
+      <c r="Z17" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA17" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AC17" s="3" t="s">
+      <c r="AC17" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="12.75">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>13</v>
@@ -2354,63 +2461,63 @@
         <v>14</v>
       </c>
       <c r="L18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T18" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="W18" s="3" t="s">
+      <c r="S18" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="T18" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="U18" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="V18" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="W18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC18" s="3" t="s">
-        <v>9</v>
+      <c r="X18" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y18" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z18" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA18" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB18" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC18" s="30" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="12.75">
       <c r="A19" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>22</v>
@@ -2455,7 +2562,7 @@
         <v>29</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="3" t="s">
         <v>29</v>
@@ -2463,43 +2570,43 @@
       <c r="R19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T19" s="3" t="s">
+      <c r="S19" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="T19" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="U19" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="V19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W19" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z19" s="3" t="s">
+      <c r="V19" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="W19" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="X19" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y19" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z19" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AA19" s="3" t="s">
+      <c r="AA19" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AB19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC19" s="4" t="s">
+      <c r="AB19" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC19" s="31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="12.75">
       <c r="A20" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>31</v>
@@ -2526,7 +2633,7 @@
         <v>28</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>15</v>
@@ -2547,48 +2654,48 @@
         <v>9</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V20" s="3" t="s">
+      <c r="S20" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="T20" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="U20" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="V20" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="W20" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC20" s="3" t="s">
+      <c r="W20" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="X20" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y20" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z20" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA20" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB20" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC20" s="28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="12.75">
       <c r="A21" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>9</v>
@@ -2600,7 +2707,7 @@
         <v>28</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>28</v>
@@ -2618,7 +2725,7 @@
         <v>29</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>13</v>
@@ -2636,48 +2743,48 @@
         <v>13</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="V21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S21" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="T21" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="U21" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="V21" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="W21" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC21" s="3" t="s">
+      <c r="W21" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="X21" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y21" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z21" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA21" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB21" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC21" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="12.75">
       <c r="A22" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>9</v>
@@ -2730,46 +2837,46 @@
       <c r="R22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T22" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="W22" s="6" t="s">
+      <c r="S22" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="T22" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="U22" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="V22" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="W22" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="X22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC22" s="4" t="s">
+      <c r="X22" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y22" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z22" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA22" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB22" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC22" s="27" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="12.75">
       <c r="A23" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>12</v>
@@ -2781,7 +2888,7 @@
         <v>9</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>29</v>
@@ -2796,13 +2903,13 @@
         <v>29</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L23" s="22" t="s">
         <v>9</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>13</v>
@@ -2819,43 +2926,43 @@
       <c r="R23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y23" s="3" t="s">
+      <c r="S23" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="T23" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="U23" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="V23" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="W23" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="X23" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y23" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC23" s="3" t="s">
-        <v>28</v>
+      <c r="Z23" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA23" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB23" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC23" s="28" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="12.75">
       <c r="A24" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>18</v>
@@ -2864,7 +2971,7 @@
         <v>29</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>33</v>
@@ -2885,75 +2992,75 @@
         <v>12</v>
       </c>
       <c r="K24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P24" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P24" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T24" s="3" t="s">
+      <c r="S24" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="T24" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="W24" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="X24" s="3" t="s">
+      <c r="U24" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="V24" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="W24" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="X24" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC24" s="3" t="s">
+      <c r="Y24" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z24" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA24" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB24" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC24" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="12.75">
       <c r="A25" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>12</v>
@@ -2965,7 +3072,7 @@
         <v>13</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I25" s="22" t="s">
         <v>9</v>
@@ -2983,7 +3090,7 @@
         <v>14</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O25" s="3" t="s">
         <v>29</v>
@@ -2997,52 +3104,52 @@
       <c r="R25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W25" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="X25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB25" s="3" t="s">
+      <c r="S25" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="T25" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="U25" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="V25" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="W25" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="X25" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y25" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z25" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA25" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB25" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="AC25" s="3" t="s">
+      <c r="AC25" s="28" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="12.75">
       <c r="A26" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>9</v>
@@ -3054,7 +3161,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>31</v>
@@ -3072,7 +3179,7 @@
         <v>28</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>28</v>
@@ -3086,49 +3193,49 @@
       <c r="R26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U26" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="X26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC26" s="3" t="s">
-        <v>12</v>
+      <c r="S26" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="T26" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="U26" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="V26" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="W26" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="X26" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y26" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z26" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA26" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB26" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC26" s="28" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="12.75">
       <c r="A27" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>14</v>
@@ -3137,13 +3244,13 @@
         <v>29</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" s="22" t="s">
         <v>9</v>
@@ -3152,13 +3259,13 @@
         <v>15</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>14</v>
@@ -3175,58 +3282,58 @@
       <c r="R27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S27" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="T27" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="U27" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="V27" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="W27" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="X27" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y27" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z27" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA27" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB27" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC27" s="4" t="s">
-        <v>72</v>
+      <c r="S27" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="T27" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="U27" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="V27" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="W27" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="X27" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y27" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z27" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA27" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB27" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC27" s="27" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="12.75">
       <c r="A28" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>13</v>
@@ -3244,13 +3351,13 @@
         <v>28</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O28" s="4" t="s">
         <v>9</v>
@@ -3259,66 +3366,66 @@
         <v>34</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="T28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="W28" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="X28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB28" s="3" t="s">
+      <c r="S28" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="T28" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="U28" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="V28" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="W28" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="X28" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y28" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z28" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA28" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB28" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="AC28" s="3" t="s">
+      <c r="AC28" s="28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="12.75">
       <c r="A29" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>29</v>
@@ -3333,7 +3440,7 @@
         <v>28</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>13</v>
@@ -3353,43 +3460,43 @@
       <c r="R29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S29" s="2" t="s">
+      <c r="S29" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="T29" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="U29" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="V29" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="W29" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="X29" s="3" t="s">
+      <c r="W29" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="X29" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z29" s="3" t="s">
+      <c r="Y29" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z29" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB29" s="3" t="s">
+      <c r="AA29" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB29" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="AC29" s="4" t="s">
+      <c r="AC29" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="12.75">
       <c r="A30" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>9</v>
@@ -3416,10 +3523,10 @@
         <v>9</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>29</v>
@@ -3428,10 +3535,10 @@
         <v>14</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P30" s="22" t="s">
         <v>9</v>
@@ -3442,43 +3549,43 @@
       <c r="R30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="U30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W30" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="X30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC30" s="3" t="s">
-        <v>47</v>
+      <c r="S30" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="T30" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="U30" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="V30" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="W30" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="X30" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y30" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z30" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA30" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB30" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC30" s="28" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="12.75">
       <c r="A31" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>28</v>
@@ -3487,7 +3594,7 @@
         <v>15</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>13</v>
@@ -3502,13 +3609,13 @@
         <v>9</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>28</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>29</v>
@@ -3531,43 +3638,43 @@
       <c r="R31" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T31" s="3" t="s">
+      <c r="S31" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="T31" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="U31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W31" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="X31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB31" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC31" s="3" t="s">
+      <c r="U31" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="V31" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="W31" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="X31" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y31" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z31" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA31" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB31" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC31" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="12.75">
       <c r="A32" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>9</v>
@@ -3576,7 +3683,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>14</v>
@@ -3620,43 +3727,43 @@
       <c r="R32" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V32" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC32" s="3" t="s">
+      <c r="S32" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="T32" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="U32" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="W32" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="X32" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y32" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z32" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA32" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB32" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC32" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="12.75">
       <c r="A33" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>13</v>
@@ -3665,7 +3772,7 @@
         <v>12</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>28</v>
@@ -3674,7 +3781,7 @@
         <v>9</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>28</v>
@@ -3686,13 +3793,13 @@
         <v>13</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N33" s="22" t="s">
         <v>9</v>
@@ -3701,7 +3808,7 @@
         <v>15</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>15</v>
@@ -3709,43 +3816,43 @@
       <c r="R33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="U33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W33" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="X33" s="3" t="s">
+      <c r="S33" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="T33" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="U33" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="V33" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="W33" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="X33" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z33" s="3" t="s">
+      <c r="Y33" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z33" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AA33" s="3" t="s">
+      <c r="AA33" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC33" s="3" t="s">
+      <c r="AB33" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC33" s="28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="12.75">
       <c r="A34" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>37</v>
@@ -3784,7 +3891,7 @@
         <v>29</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>33</v>
@@ -3798,52 +3905,52 @@
       <c r="R34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S34" s="2" t="s">
+      <c r="S34" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="T34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V34" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="W34" s="3" t="s">
+      <c r="T34" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="U34" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="V34" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="W34" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="X34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC34" s="4" t="s">
+      <c r="X34" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y34" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z34" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA34" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB34" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC34" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="12.75">
       <c r="A35" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>31</v>
@@ -3873,10 +3980,10 @@
         <v>15</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P35" s="22" t="s">
         <v>9</v>
@@ -3887,43 +3994,43 @@
       <c r="R35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V35" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="W35" s="3" t="s">
+      <c r="S35" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="T35" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="U35" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="V35" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="W35" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC35" s="4" t="s">
+      <c r="X35" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y35" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z35" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA35" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB35" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC35" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="15.75" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>9</v>
@@ -3932,10 +4039,10 @@
         <v>28</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>29</v>
@@ -3976,37 +4083,37 @@
       <c r="R36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="U36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="V36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W36" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="X36" s="3" t="s">
+      <c r="S36" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="T36" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="U36" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="V36" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="W36" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="X36" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="Y36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z36" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC36" s="6" t="s">
+      <c r="Y36" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z36" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA36" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB36" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC36" s="29" t="s">
         <v>29</v>
       </c>
     </row>
